--- a/tables/table_7.xlsx
+++ b/tables/table_7.xlsx
@@ -14,51 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>€</t>
+  </si>
+  <si>
+    <t>Banking organizations</t>
+  </si>
+  <si>
+    <t>Academic and other organizations</t>
+  </si>
+  <si>
+    <t>Total costs</t>
   </si>
   <si>
     <t>2019</t>
   </si>
   <si>
+    <t>1,398,557</t>
+  </si>
+  <si>
+    <t>678,419</t>
+  </si>
+  <si>
+    <t>2,076,976</t>
+  </si>
+  <si>
     <t>2018</t>
   </si>
   <si>
+    <t>1,619,579</t>
+  </si>
+  <si>
+    <t>676,948</t>
+  </si>
+  <si>
+    <t>2,296,527</t>
+  </si>
+  <si>
     <t>2017</t>
   </si>
   <si>
-    <t>Banking organizations</t>
-  </si>
-  <si>
-    <t>1,398,557</t>
-  </si>
-  <si>
-    <t>1,619,579</t>
-  </si>
-  <si>
     <t>1,731,872</t>
   </si>
   <si>
-    <t>Academic and other organizations</t>
-  </si>
-  <si>
-    <t>678,419</t>
-  </si>
-  <si>
-    <t>676,948</t>
-  </si>
-  <si>
     <t>677,023</t>
-  </si>
-  <si>
-    <t>Total costs</t>
-  </si>
-  <si>
-    <t>2,076,976</t>
-  </si>
-  <si>
-    <t>2,296,527</t>
   </si>
   <si>
     <t>2,408,895</t>
@@ -419,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,56 +441,70 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
         <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
